--- a/rtss-pre1917/src/main/resources/csk-dvizhenie-evropriskoi-chasti-rossii/year-volumes/1901.xlsx
+++ b/rtss-pre1917/src/main/resources/csk-dvizhenie-evropriskoi-chasti-rossii/year-volumes/1901.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\csk\year-volumes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\csk-dvizhenie-evropriskoi-chasti-rossii\year-volumes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F22C249-BE6C-4217-87F3-EFC9CA9CCC31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AEE006B-7292-4632-BAB3-51BDDEE4EAAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5865" yWindow="1395" windowWidth="32535" windowHeight="20955" xr2:uid="{F0F53497-2088-47E8-B86A-A83077699C03}"/>
+    <workbookView xWindow="82605" yWindow="0" windowWidth="31005" windowHeight="23295" activeTab="1" xr2:uid="{F0F53497-2088-47E8-B86A-A83077699C03}"/>
   </bookViews>
   <sheets>
     <sheet name="note" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -214,12 +219,6 @@
     <t>v</t>
   </si>
   <si>
-    <t>чc-м</t>
-  </si>
-  <si>
-    <t>чc-ж</t>
-  </si>
-  <si>
     <t>чс-о</t>
   </si>
   <si>
@@ -239,6 +238,12 @@
   </si>
   <si>
     <t>стр. XII, 15, 93</t>
+  </si>
+  <si>
+    <t>чс-м</t>
+  </si>
+  <si>
+    <t>чс-ж</t>
   </si>
 </sst>
 </file>
@@ -248,7 +253,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -636,13 +641,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAEF10A1-F9D4-4DE9-9452-15A436BD200D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -654,19 +659,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92751CB6-2080-4F2A-93AB-D7595671A56D}">
   <dimension ref="A1:V55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.68359375" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" customWidth="1"/>
+    <col min="9" max="9" width="9.83984375" customWidth="1"/>
+    <col min="13" max="13" width="11.578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
@@ -698,31 +703,31 @@
         <v>59</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="P1" s="7" t="s">
         <v>59</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="V1" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="V1" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -786,7 +791,7 @@
         <v>0.1144524929138484</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -850,7 +855,7 @@
         <v>-4.8014675984152433E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -914,7 +919,7 @@
         <v>-6.3575235055203905E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -978,7 +983,7 @@
         <v>-5.112018704312149E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1042,7 +1047,7 @@
         <v>3.7006049974134925E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1106,7 +1111,7 @@
         <v>-2.6393547107588233E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1170,7 +1175,7 @@
         <v>-5.1170249512999533E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1233,7 +1238,7 @@
         <v>2.8911561373185179E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1296,7 +1301,7 @@
         <v>4.9678702043912892E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1359,7 +1364,7 @@
         <v>2.265902890759719E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1422,7 +1427,7 @@
         <v>1.6851962953239763E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1485,7 +1490,7 @@
         <v>2.3313063621927199E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1548,7 +1553,7 @@
         <v>0.12269044568057197</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1611,7 +1616,7 @@
         <v>-4.4103657877990088E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1674,7 +1679,7 @@
         <v>-7.01556696298411E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1737,7 +1742,7 @@
         <v>-9.0292918890824581E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1800,7 +1805,7 @@
         <v>8.2340506468732144E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1863,7 +1868,7 @@
         <v>3.0767664053541921E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1926,7 +1931,7 @@
         <v>4.7165605049883652E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1989,7 +1994,7 @@
         <v>-2.9359846546839208E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -2052,7 +2057,7 @@
         <v>1.0027465578755113E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -2115,7 +2120,7 @@
         <v>-7.5319407741165634E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -2178,7 +2183,7 @@
         <v>3.1133401520452963E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -2241,7 +2246,7 @@
         <v>-2.9846604247531161E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -2304,7 +2309,7 @@
         <v>2.9670303563051448E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -2367,7 +2372,7 @@
         <v>-4.7381401240670584E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -2430,7 +2435,7 @@
         <v>-2.0576290550181398E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -2493,7 +2498,7 @@
         <v>3.4750950754656174E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -2556,7 +2561,7 @@
         <v>-1.4805334926528246E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -2619,7 +2624,7 @@
         <v>-3.5277539687868398E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -2682,7 +2687,7 @@
         <v>-2.0569709683634585E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -2745,7 +2750,7 @@
         <v>-4.1505824380649869E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -2808,7 +2813,7 @@
         <v>4.2648607995907639E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -2871,7 +2876,7 @@
         <v>-5.7704422029978275E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -2934,7 +2939,7 @@
         <v>-4.3790917593263146E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -2997,7 +3002,7 @@
         <v>-4.4989168974751692E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -3060,7 +3065,7 @@
         <v>-1.3657562239366428E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -3123,7 +3128,7 @@
         <v>-3.403904830854998E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -3186,7 +3191,7 @@
         <v>2.7736518101107777E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -3249,7 +3254,7 @@
         <v>3.9104301218664261E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -3312,7 +3317,7 @@
         <v>-3.6837033765593219E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -3375,7 +3380,7 @@
         <v>-2.5292240537211796E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -3438,7 +3443,7 @@
         <v>2.1828602762205662E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -3501,7 +3506,7 @@
         <v>1.8111934152003073E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -3564,7 +3569,7 @@
         <v>-2.3589956153262648E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -3627,7 +3632,7 @@
         <v>-5.5351996131637549E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -3690,7 +3695,7 @@
         <v>-9.3494341926632529E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -3753,7 +3758,7 @@
         <v>-5.2421197041368828E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -3816,7 +3821,7 @@
         <v>1.5040706178375274E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -3879,7 +3884,7 @@
         <v>-3.6973278107730323E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22">
       <c r="A52" t="s">
         <v>55</v>
       </c>
@@ -3942,14 +3947,14 @@
         <v>-2.9555351350225578E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22">
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22">
       <c r="A54" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B54" s="4">
         <f>SUM(B2:B51)</f>
@@ -3980,7 +3985,7 @@
         <v>3218501</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22">
       <c r="B55" s="4">
         <f>B52-B54</f>
         <v>0</v>

--- a/rtss-pre1917/src/main/resources/csk-dvizhenie-evropriskoi-chasti-rossii/year-volumes/1901.xlsx
+++ b/rtss-pre1917/src/main/resources/csk-dvizhenie-evropriskoi-chasti-rossii/year-volumes/1901.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\csk-dvizhenie-evropriskoi-chasti-rossii\year-volumes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AEE006B-7292-4632-BAB3-51BDDEE4EAAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A5C026-E0C6-46DC-910A-632C868A55E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="82605" yWindow="0" windowWidth="31005" windowHeight="23295" activeTab="1" xr2:uid="{F0F53497-2088-47E8-B86A-A83077699C03}"/>
   </bookViews>
@@ -192,9 +192,6 @@
     <t>губ</t>
   </si>
   <si>
-    <t>чж PYY</t>
-  </si>
-  <si>
     <t>р</t>
   </si>
   <si>
@@ -244,6 +241,9 @@
   </si>
   <si>
     <t>чс-ж</t>
+  </si>
+  <si>
+    <t>чж YY</t>
   </si>
 </sst>
 </file>
@@ -647,7 +647,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -660,7 +660,7 @@
   <dimension ref="A1:V55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -676,55 +676,55 @@
         <v>50</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="F1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="P1" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="K1" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="P1" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="U1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="V1" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:22">
@@ -3886,7 +3886,7 @@
     </row>
     <row r="52" spans="1:22">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B52" s="3">
         <v>100172597</v>
@@ -3954,7 +3954,7 @@
     </row>
     <row r="54" spans="1:22">
       <c r="A54" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B54" s="4">
         <f>SUM(B2:B51)</f>

--- a/rtss-pre1917/src/main/resources/csk-dvizhenie-evropriskoi-chasti-rossii/year-volumes/1901.xlsx
+++ b/rtss-pre1917/src/main/resources/csk-dvizhenie-evropriskoi-chasti-rossii/year-volumes/1901.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\csk-dvizhenie-evropriskoi-chasti-rossii\year-volumes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A5C026-E0C6-46DC-910A-632C868A55E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E5E726-16B7-43D8-94B7-BC7F58CCFD7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="82605" yWindow="0" windowWidth="31005" windowHeight="23295" activeTab="1" xr2:uid="{F0F53497-2088-47E8-B86A-A83077699C03}"/>
+    <workbookView xWindow="84735" yWindow="1755" windowWidth="29700" windowHeight="16770" activeTab="1" xr2:uid="{F0F53497-2088-47E8-B86A-A83077699C03}"/>
   </bookViews>
   <sheets>
     <sheet name="note" sheetId="2" r:id="rId1"/>
@@ -660,7 +660,8 @@
   <dimension ref="A1:V55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
